--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1269109.995229657</v>
+        <v>1266731.071024653</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>1.71847542934877</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863186</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>71.49777053864712</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>105.4059921864027</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>19.49168497188372</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>190.2651610286889</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>97.99922286953594</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>72.08802744677254</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>133.6650819731286</v>
+        <v>401.5764851263129</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386356</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>221.7048515690715</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>213.4358234626141</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>182.1604306011915</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>49.32454166156973</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1772085549307371</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417083</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>24.37401740174915</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>47.77181552888025</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.8267013149777</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>128.4194245285947</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922734</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756194</v>
+        <v>22.54881804343173</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819418</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>13.03790159951478</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899524</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462248</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.839588425938352</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>62.18842302759701</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182163</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>153.2812357980622</v>
       </c>
     </row>
     <row r="38">
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>174.7366421803695</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.9868265178721</v>
+        <v>126.4267013134142</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1638.360256348808</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1638.360256348808</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1280.094557742058</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>894.3063051438135</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>483.3204003542059</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>68.24795019920236</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>68.24795019920236</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
@@ -4358,22 +4358,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388742</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.96009641293</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4431,7 +4431,7 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
         <v>3196.023581695166</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>700.0944266746548</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>700.0944266746548</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>549.977787262319</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>549.977787262319</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>502.8192339670544</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>502.8192339670544</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4020639300938</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1251.839541207229</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3023.128121794156</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2769.597645067992</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2438.534757724422</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2438.534757724422</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064583</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,31 +4665,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.5540527820583</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C7" t="n">
-        <v>315.6178698541514</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D7" t="n">
-        <v>165.5012304418157</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723577</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4759,16 +4759,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835253</v>
+        <v>2038.144201386631</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894841</v>
+        <v>1669.181684446219</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288091</v>
+        <v>1310.915985839468</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898465</v>
+        <v>925.1277332412242</v>
       </c>
       <c r="F8" t="n">
-        <v>541.107849900239</v>
+        <v>514.1418284516167</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899375</v>
+        <v>2424.744041450752</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879453</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600384</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477026</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653095</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673992</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5051,22 +5051,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.8694853882145</v>
+        <v>241.729756630365</v>
       </c>
       <c r="C13" t="n">
-        <v>243.9333024603076</v>
+        <v>241.729756630365</v>
       </c>
       <c r="D13" t="n">
-        <v>93.81666304797186</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629335</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936171</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964858</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1038.099241987799</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>1038.099241987799</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V13" t="n">
-        <v>1038.099241987799</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W13" t="n">
-        <v>822.5075011164715</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X13" t="n">
-        <v>594.5179502184542</v>
+        <v>423.3782214606047</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.5179502184542</v>
+        <v>423.3782214606047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797183</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745235</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>243.9333024603076</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="C16" t="n">
-        <v>243.9333024603076</v>
+        <v>438.4424734833963</v>
       </c>
       <c r="D16" t="n">
-        <v>93.81666304797183</v>
+        <v>438.4424734833963</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797183</v>
+        <v>290.5293799010032</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797183</v>
+        <v>143.6394324030928</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>143.6394324030928</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629332</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936165</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
@@ -5455,31 +5455,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.655003217259</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T16" t="n">
-        <v>1190.655003217259</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U16" t="n">
-        <v>1190.476004676925</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V16" t="n">
-        <v>935.791516471038</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W16" t="n">
-        <v>646.3743464340774</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X16" t="n">
-        <v>646.3743464340774</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.5817672905473</v>
+        <v>607.3786564113032</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797182</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.7297566303649</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>241.7297566303649</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7297566303649</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.765736413132</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629332</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936165</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
@@ -5692,31 +5692,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1038.099241987798</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>749.0240153319955</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V19" t="n">
-        <v>494.3395271261087</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W19" t="n">
-        <v>469.7193075283823</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="X19" t="n">
-        <v>241.7297566303649</v>
+        <v>957.8815022060485</v>
       </c>
       <c r="Y19" t="n">
-        <v>241.7297566303649</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>381.7182656184517</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>772.1168597943918</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1194.126562525426</v>
+        <v>1129.437033731429</v>
       </c>
       <c r="N22" t="n">
-        <v>1611.536434185435</v>
+        <v>1546.846905391437</v>
       </c>
       <c r="O22" t="n">
-        <v>1981.065714894419</v>
+        <v>1916.376186100422</v>
       </c>
       <c r="P22" t="n">
-        <v>2273.741170467978</v>
+        <v>2209.051641673981</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400903</v>
+        <v>2328.249876400881</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400903</v>
+        <v>2261.204172653283</v>
       </c>
       <c r="S22" t="n">
-        <v>2328.249876400903</v>
+        <v>2261.204172653283</v>
       </c>
       <c r="T22" t="n">
-        <v>2108.648411423844</v>
+        <v>2261.204172653283</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.573184768042</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V22" t="n">
-        <v>1564.888696562155</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.471526525194</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>1047.481975627177</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>826.689396483647</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536426</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257357</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034134</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310069</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330965</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524079</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868277</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.71639066239</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.29922062543</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727412</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583882</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>633.992644467965</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>483.8760050556292</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>335.9629114732361</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>189.0729639753257</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172278</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135318</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.1082042373</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.31562509377</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>551.4727111160156</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>404.5827636181052</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>237.3866643329852</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>95.67483317518233</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,13 +6841,13 @@
         <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122182</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5477693179085</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C37" t="n">
-        <v>699.7311804011439</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
         <v>549.6145409888042</v>
@@ -7123,22 +7123,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>806.8386896933887</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.8386896933887</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -9556,16 +9556,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>85.81063556092886</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>58.59733042522328</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -9577,7 +9577,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>73.08717487397692</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>43.54922478784565</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>90.97017118465848</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0072658343134</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462344</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856948</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>262.1489809348419</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>170.8128378232146</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.00527886695961</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922719</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>157.7650498606509</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516689</v>
+        <v>194.8566322838565</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>152.4862366927541</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992917</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>79.42624789262719</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>105.0583980710308</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>65.30341755403256</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.84801117172532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.845153664065208</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900719.5099585134</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900719.5099585132</v>
+        <v>900719.5099585133</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900719.5099585132</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938424.7841385832</v>
+        <v>938424.7841385824</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>943467.1887688149</v>
+        <v>943467.1887688151</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688151</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>943467.1887688149</v>
+        <v>943467.188768815</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="16">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469940.6138913982</v>
+      </c>
+      <c r="F2" t="n">
         <v>469940.6138913981</v>
       </c>
-      <c r="F2" t="n">
-        <v>469940.6138913979</v>
-      </c>
       <c r="G2" t="n">
-        <v>469940.613891398</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="H2" t="n">
-        <v>482595.5843324547</v>
+        <v>482595.5843324544</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,22 +26418,22 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
         <v>761.388208683545</v>
       </c>
       <c r="G4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>14243.58217073157</v>
+        <v>14243.58217073121</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26522,46 +26522,46 @@
         <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.3772531239</v>
+        <v>291094.377253124</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.3772531241</v>
+        <v>291094.3772531244</v>
       </c>
       <c r="E6" t="n">
-        <v>42644.23405145225</v>
+        <v>42549.71551800534</v>
       </c>
       <c r="F6" t="n">
-        <v>368056.6958588077</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="G6" t="n">
-        <v>368056.6958588074</v>
+        <v>367962.177325361</v>
       </c>
       <c r="H6" t="n">
-        <v>367229.4723378159</v>
+        <v>367187.6828478739</v>
       </c>
       <c r="I6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927689</v>
       </c>
       <c r="J6" t="n">
-        <v>149587.6436209271</v>
+        <v>149552.9056954913</v>
       </c>
       <c r="K6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927689</v>
       </c>
       <c r="L6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927688</v>
       </c>
       <c r="M6" t="n">
-        <v>282063.8180826928</v>
+        <v>282029.080157257</v>
       </c>
       <c r="N6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927688</v>
       </c>
       <c r="O6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927688</v>
       </c>
       <c r="P6" t="n">
-        <v>367118.8460182044</v>
+        <v>367084.1080927688</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85845434357718</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>168.0688818921504</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>73.92327748428413</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>180.8058460192102</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>362.4386851003781</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>13.65280911093126</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>48.43473977703323</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27831,7 +27831,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>277.2566436803248</v>
+        <v>9.345240527140561</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351647</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>64.81814676751949</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28737,10 +28737,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.055771766308074e-11</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-2.355346330481042e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.063623429018965e-12</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29275,10 +29275,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-2.920938348146081e-12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987485</v>
@@ -31628,10 +31628,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338213</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525818</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
         <v>159.233896612727</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
         <v>157.5888220649824</v>
@@ -35811,19 +35811,19 @@
         <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394708</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
         <v>157.5888220649824</v>
@@ -36048,19 +36048,19 @@
         <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194022999</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>243.3994576259112</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>306.3600965168228</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214687</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
